--- a/pred_ohlcv/54/2019-10-17 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 LBA ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,7 +431,10 @@
         <v>11.81333333333332</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +460,10 @@
         <v>11.81166666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -608,7 +634,10 @@
         <v>11.81666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +663,10 @@
         <v>11.81833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -660,6 +692,9 @@
         <v>11.81999999999999</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,7 +721,10 @@
         <v>11.82166666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -712,6 +750,9 @@
         <v>11.82333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,7 +779,10 @@
         <v>11.82333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -764,7 +808,10 @@
         <v>11.82333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1232,6 +1330,9 @@
         <v>11.81833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1570,7 +1707,10 @@
         <v>11.80666666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1596,7 +1736,10 @@
         <v>11.80666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1622,6 +1765,9 @@
         <v>11.80666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1700,7 +1852,10 @@
         <v>11.80833333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1908,7 +2084,10 @@
         <v>11.81166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1936,551 +2115,8 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F61" t="n">
-        <v>875.4621</v>
-      </c>
-      <c r="G61" t="n">
-        <v>11.81833333333334</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>31800</v>
-      </c>
-      <c r="G62" t="n">
-        <v>11.82166666666667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>16413.5294</v>
-      </c>
-      <c r="G63" t="n">
-        <v>11.825</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>13.7713</v>
-      </c>
-      <c r="G64" t="n">
-        <v>11.825</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>64860</v>
-      </c>
-      <c r="G65" t="n">
-        <v>11.82666666666667</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>60600.2266</v>
-      </c>
-      <c r="G66" t="n">
-        <v>11.825</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4270</v>
-      </c>
-      <c r="G67" t="n">
-        <v>11.82333333333333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4270</v>
-      </c>
-      <c r="G68" t="n">
-        <v>11.82166666666667</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>7820.2266</v>
-      </c>
-      <c r="G69" t="n">
-        <v>11.81833333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10310</v>
-      </c>
-      <c r="G70" t="n">
-        <v>11.81666666666666</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10320</v>
-      </c>
-      <c r="G71" t="n">
-        <v>11.815</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5160</v>
-      </c>
-      <c r="G72" t="n">
-        <v>11.81333333333333</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2580</v>
-      </c>
-      <c r="G73" t="n">
-        <v>11.81166666666666</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3870</v>
-      </c>
-      <c r="G74" t="n">
-        <v>11.81166666666666</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3870</v>
-      </c>
-      <c r="G75" t="n">
-        <v>11.81166666666666</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3870</v>
-      </c>
-      <c r="G76" t="n">
-        <v>11.81166666666666</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5800</v>
-      </c>
-      <c r="G77" t="n">
-        <v>11.81166666666666</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F78" t="n">
-        <v>36790.247</v>
-      </c>
-      <c r="G78" t="n">
-        <v>11.81333333333333</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2580</v>
-      </c>
-      <c r="G79" t="n">
-        <v>11.81333333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>13785.8833</v>
-      </c>
-      <c r="G80" t="n">
-        <v>11.815</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>53156.1303</v>
-      </c>
-      <c r="G81" t="n">
-        <v>11.81666666666666</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
